--- a/src/观测数据.xlsx
+++ b/src/观测数据.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\python\hanchaoshuai\hanchaoshuai_new\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83464A34-E077-49F3-9D30-05EAFA9CBDF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A74E018-E9A9-46E8-9F67-5679694EB426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>样品编号</t>
   </si>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>J8</t>
-  </si>
-  <si>
-    <t>B15</t>
   </si>
   <si>
     <t>C12</t>
@@ -472,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -485,10 +482,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
         <v>38</v>
-      </c>
-      <c r="C1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -790,7 +787,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B29">
         <v>5</v>
@@ -801,13 +798,13 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>5</v>
       </c>
-      <c r="C30">
-        <v>0</v>
+      <c r="C30" s="1">
+        <v>5.07E-12</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -818,7 +815,7 @@
         <v>5</v>
       </c>
       <c r="C31" s="1">
-        <v>5.07E-12</v>
+        <v>5.2899999999999997E-13</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -828,8 +825,8 @@
       <c r="B32">
         <v>5</v>
       </c>
-      <c r="C32" s="1">
-        <v>5.2899999999999997E-13</v>
+      <c r="C32">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -839,8 +836,8 @@
       <c r="B33">
         <v>5</v>
       </c>
-      <c r="C33">
-        <v>0</v>
+      <c r="C33" s="1">
+        <v>1.8641499999999999E-8</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -851,7 +848,7 @@
         <v>5</v>
       </c>
       <c r="C34" s="1">
-        <v>1.8641499999999999E-8</v>
+        <v>9.5300000000000008E-13</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -862,7 +859,7 @@
         <v>5</v>
       </c>
       <c r="C35" s="1">
-        <v>9.5300000000000008E-13</v>
+        <v>3.6100000000000002E-12</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -872,8 +869,8 @@
       <c r="B36">
         <v>5</v>
       </c>
-      <c r="C36" s="1">
-        <v>3.6100000000000002E-12</v>
+      <c r="C36">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -883,8 +880,8 @@
       <c r="B37">
         <v>5</v>
       </c>
-      <c r="C37">
-        <v>0</v>
+      <c r="C37" s="1">
+        <v>1.13E-12</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -895,17 +892,6 @@
         <v>5</v>
       </c>
       <c r="C38" s="1">
-        <v>1.13E-12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>5</v>
-      </c>
-      <c r="C39" s="1">
         <v>1.9099999999999999E-8</v>
       </c>
     </row>
